--- a/logic/Raw_Input/test.xlsx
+++ b/logic/Raw_Input/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="1193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="1194">
   <si>
     <t>Current position</t>
   </si>
@@ -3610,13 +3610,16 @@
   </si>
   <si>
     <t>02A</t>
+  </si>
+  <si>
+    <t>asd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3747,6 +3750,22 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4049,7 +4068,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -4092,12 +4111,16 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="46">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -4126,11 +4149,15 @@
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -4451,10 +4478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C586"/>
+  <dimension ref="A1:D586"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A563" workbookViewId="0">
-      <selection activeCell="A587" sqref="A587"/>
+    <sheetView topLeftCell="A547" workbookViewId="0">
+      <selection activeCell="A588" sqref="A588"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4464,7 +4491,7 @@
     <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -4474,8 +4501,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>20388</v>
       </c>
@@ -4485,8 +4515,12 @@
       <c r="C2" t="s">
         <v>1192</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="str">
+        <f>LEFT(C2,2)</f>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>20488</v>
       </c>
@@ -4496,8 +4530,12 @@
       <c r="C3" t="s">
         <v>1192</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D66" si="0">LEFT(C3,2)</f>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>20584</v>
       </c>
@@ -4507,8 +4545,12 @@
       <c r="C4" t="s">
         <v>1192</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>20586</v>
       </c>
@@ -4518,8 +4560,12 @@
       <c r="C5" t="s">
         <v>1192</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>20588</v>
       </c>
@@ -4529,8 +4575,12 @@
       <c r="C6" t="s">
         <v>1192</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>100106</v>
       </c>
@@ -4540,8 +4590,12 @@
       <c r="C7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>100108</v>
       </c>
@@ -4551,8 +4605,12 @@
       <c r="C8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>100112</v>
       </c>
@@ -4562,8 +4620,12 @@
       <c r="C9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>100114</v>
       </c>
@@ -4573,8 +4635,12 @@
       <c r="C10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>100202</v>
       </c>
@@ -4584,8 +4650,12 @@
       <c r="C11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>100204</v>
       </c>
@@ -4595,8 +4665,12 @@
       <c r="C12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>100206</v>
       </c>
@@ -4606,8 +4680,12 @@
       <c r="C13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>100208</v>
       </c>
@@ -4617,8 +4695,12 @@
       <c r="C14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>100212</v>
       </c>
@@ -4628,8 +4710,12 @@
       <c r="C15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>100214</v>
       </c>
@@ -4639,8 +4725,12 @@
       <c r="C16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>180610</v>
       </c>
@@ -4650,8 +4740,12 @@
       <c r="C17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>180612</v>
       </c>
@@ -4661,8 +4755,12 @@
       <c r="C18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>300592</v>
       </c>
@@ -4672,8 +4770,12 @@
       <c r="C19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>300692</v>
       </c>
@@ -4683,8 +4785,12 @@
       <c r="C20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>300792</v>
       </c>
@@ -4694,8 +4800,12 @@
       <c r="C21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>300892</v>
       </c>
@@ -4705,8 +4815,12 @@
       <c r="C22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>300992</v>
       </c>
@@ -4716,8 +4830,12 @@
       <c r="C23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>301092</v>
       </c>
@@ -4727,8 +4845,12 @@
       <c r="C24" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>301192</v>
       </c>
@@ -4738,8 +4860,12 @@
       <c r="C25" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>301292</v>
       </c>
@@ -4749,8 +4875,12 @@
       <c r="C26" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>301392</v>
       </c>
@@ -4760,8 +4890,12 @@
       <c r="C27" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>301492</v>
       </c>
@@ -4771,8 +4905,12 @@
       <c r="C28" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>340190</v>
       </c>
@@ -4782,8 +4920,12 @@
       <c r="C29" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>340192</v>
       </c>
@@ -4793,8 +4935,12 @@
       <c r="C30" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>340282</v>
       </c>
@@ -4804,8 +4950,12 @@
       <c r="C31" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>340284</v>
       </c>
@@ -4815,8 +4965,12 @@
       <c r="C32" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>340392</v>
       </c>
@@ -4826,8 +4980,12 @@
       <c r="C33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>340482</v>
       </c>
@@ -4837,8 +4995,12 @@
       <c r="C34" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>340484</v>
       </c>
@@ -4848,8 +5010,12 @@
       <c r="C35" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>340486</v>
       </c>
@@ -4859,8 +5025,12 @@
       <c r="C36" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>340488</v>
       </c>
@@ -4870,8 +5040,12 @@
       <c r="C37" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>340490</v>
       </c>
@@ -4881,8 +5055,12 @@
       <c r="C38" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>340492</v>
       </c>
@@ -4892,8 +5070,12 @@
       <c r="C39" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>340592</v>
       </c>
@@ -4903,8 +5085,12 @@
       <c r="C40" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>340692</v>
       </c>
@@ -4914,8 +5100,12 @@
       <c r="C41" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>340792</v>
       </c>
@@ -4925,8 +5115,12 @@
       <c r="C42" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>340892</v>
       </c>
@@ -4936,8 +5130,12 @@
       <c r="C43" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>340992</v>
       </c>
@@ -4947,8 +5145,12 @@
       <c r="C44" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>341092</v>
       </c>
@@ -4958,8 +5160,12 @@
       <c r="C45" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>341192</v>
       </c>
@@ -4969,8 +5175,12 @@
       <c r="C46" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>341292</v>
       </c>
@@ -4980,8 +5190,12 @@
       <c r="C47" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>341392</v>
       </c>
@@ -4991,8 +5205,12 @@
       <c r="C48" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>341492</v>
       </c>
@@ -5002,8 +5220,12 @@
       <c r="C49" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>341590</v>
       </c>
@@ -5013,8 +5235,12 @@
       <c r="C50" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>341690</v>
       </c>
@@ -5024,8 +5250,12 @@
       <c r="C51" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>340084</v>
       </c>
@@ -5035,8 +5265,12 @@
       <c r="C52" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>340082</v>
       </c>
@@ -5046,8 +5280,12 @@
       <c r="C53" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>420192</v>
       </c>
@@ -5057,8 +5295,12 @@
       <c r="C54" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>420292</v>
       </c>
@@ -5068,8 +5310,12 @@
       <c r="C55" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>420392</v>
       </c>
@@ -5079,8 +5325,12 @@
       <c r="C56" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>420582</v>
       </c>
@@ -5090,8 +5340,12 @@
       <c r="C57" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>420584</v>
       </c>
@@ -5101,8 +5355,12 @@
       <c r="C58" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>420586</v>
       </c>
@@ -5112,8 +5370,12 @@
       <c r="C59" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>420588</v>
       </c>
@@ -5123,8 +5385,12 @@
       <c r="C60" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>420590</v>
       </c>
@@ -5134,8 +5400,12 @@
       <c r="C61" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>420592</v>
       </c>
@@ -5145,8 +5415,12 @@
       <c r="C62" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>420682</v>
       </c>
@@ -5156,8 +5430,12 @@
       <c r="C63" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>420684</v>
       </c>
@@ -5167,8 +5445,12 @@
       <c r="C64" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>420686</v>
       </c>
@@ -5178,8 +5460,12 @@
       <c r="C65" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>420688</v>
       </c>
@@ -5189,8 +5475,12 @@
       <c r="C66" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D66" t="str">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>420690</v>
       </c>
@@ -5200,8 +5490,12 @@
       <c r="C67" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D67" t="str">
+        <f t="shared" ref="D67:D130" si="1">LEFT(C67,2)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>420692</v>
       </c>
@@ -5211,8 +5505,12 @@
       <c r="C68" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D68" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>420782</v>
       </c>
@@ -5222,8 +5520,12 @@
       <c r="C69" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D69" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>420784</v>
       </c>
@@ -5233,8 +5535,12 @@
       <c r="C70" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D70" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>420786</v>
       </c>
@@ -5244,8 +5550,12 @@
       <c r="C71" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D71" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>420788</v>
       </c>
@@ -5255,8 +5565,12 @@
       <c r="C72" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D72" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>420790</v>
       </c>
@@ -5266,8 +5580,12 @@
       <c r="C73" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D73" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>420792</v>
       </c>
@@ -5277,8 +5595,12 @@
       <c r="C74" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D74" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>420882</v>
       </c>
@@ -5288,8 +5610,12 @@
       <c r="C75" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D75" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>420884</v>
       </c>
@@ -5299,8 +5625,12 @@
       <c r="C76" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D76" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>420886</v>
       </c>
@@ -5310,8 +5640,12 @@
       <c r="C77" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D77" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>420888</v>
       </c>
@@ -5321,8 +5655,12 @@
       <c r="C78" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D78" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>420890</v>
       </c>
@@ -5332,8 +5670,12 @@
       <c r="C79" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D79" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>420892</v>
       </c>
@@ -5343,8 +5685,12 @@
       <c r="C80" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D80" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>420982</v>
       </c>
@@ -5354,8 +5700,12 @@
       <c r="C81" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D81" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>420984</v>
       </c>
@@ -5365,8 +5715,12 @@
       <c r="C82" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D82" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>420986</v>
       </c>
@@ -5376,8 +5730,12 @@
       <c r="C83" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D83" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>420988</v>
       </c>
@@ -5387,8 +5745,12 @@
       <c r="C84" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D84" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>420990</v>
       </c>
@@ -5398,8 +5760,12 @@
       <c r="C85" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D85" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>420992</v>
       </c>
@@ -5409,8 +5775,12 @@
       <c r="C86" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D86" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>421082</v>
       </c>
@@ -5420,8 +5790,12 @@
       <c r="C87" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D87" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>421084</v>
       </c>
@@ -5431,8 +5805,12 @@
       <c r="C88" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D88" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>421086</v>
       </c>
@@ -5442,8 +5820,12 @@
       <c r="C89" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D89" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>421088</v>
       </c>
@@ -5453,8 +5835,12 @@
       <c r="C90" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D90" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>421090</v>
       </c>
@@ -5464,8 +5850,12 @@
       <c r="C91" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D91" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>421092</v>
       </c>
@@ -5475,8 +5865,12 @@
       <c r="C92" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D92" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>421182</v>
       </c>
@@ -5486,8 +5880,12 @@
       <c r="C93" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D93" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>421184</v>
       </c>
@@ -5497,8 +5895,12 @@
       <c r="C94" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D94" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>421186</v>
       </c>
@@ -5508,8 +5910,12 @@
       <c r="C95" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D95" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>421188</v>
       </c>
@@ -5519,8 +5925,12 @@
       <c r="C96" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D96" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>421190</v>
       </c>
@@ -5530,8 +5940,12 @@
       <c r="C97" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D97" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>421192</v>
       </c>
@@ -5541,8 +5955,12 @@
       <c r="C98" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D98" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>421282</v>
       </c>
@@ -5552,8 +5970,12 @@
       <c r="C99" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D99" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>421284</v>
       </c>
@@ -5563,8 +5985,12 @@
       <c r="C100" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D100" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>421286</v>
       </c>
@@ -5574,8 +6000,12 @@
       <c r="C101" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D101" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>421288</v>
       </c>
@@ -5585,8 +6015,12 @@
       <c r="C102" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D102" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>421290</v>
       </c>
@@ -5596,8 +6030,12 @@
       <c r="C103" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D103" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>421292</v>
       </c>
@@ -5607,8 +6045,12 @@
       <c r="C104" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D104" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>421384</v>
       </c>
@@ -5618,8 +6060,12 @@
       <c r="C105" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D105" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>421386</v>
       </c>
@@ -5629,8 +6075,12 @@
       <c r="C106" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D106" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>421388</v>
       </c>
@@ -5640,8 +6090,12 @@
       <c r="C107" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D107" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>421390</v>
       </c>
@@ -5651,8 +6105,12 @@
       <c r="C108" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D108" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>421392</v>
       </c>
@@ -5662,8 +6120,12 @@
       <c r="C109" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D109" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>421484</v>
       </c>
@@ -5673,8 +6135,12 @@
       <c r="C110" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D110" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>421486</v>
       </c>
@@ -5684,8 +6150,12 @@
       <c r="C111" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D111" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>421488</v>
       </c>
@@ -5695,8 +6165,12 @@
       <c r="C112" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D112" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>421490</v>
       </c>
@@ -5706,8 +6180,12 @@
       <c r="C113" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D113" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>421492</v>
       </c>
@@ -5717,8 +6195,12 @@
       <c r="C114" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D114" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>421582</v>
       </c>
@@ -5728,8 +6210,12 @@
       <c r="C115" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D115" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>421584</v>
       </c>
@@ -5739,8 +6225,12 @@
       <c r="C116" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D116" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>421586</v>
       </c>
@@ -5750,8 +6240,12 @@
       <c r="C117" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D117" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>421588</v>
       </c>
@@ -5761,8 +6255,12 @@
       <c r="C118" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D118" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>421590</v>
       </c>
@@ -5772,8 +6270,12 @@
       <c r="C119" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D119" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>421682</v>
       </c>
@@ -5783,8 +6285,12 @@
       <c r="C120" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D120" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>421684</v>
       </c>
@@ -5794,8 +6300,12 @@
       <c r="C121" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D121" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>421686</v>
       </c>
@@ -5805,8 +6315,12 @@
       <c r="C122" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D122" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>421688</v>
       </c>
@@ -5816,8 +6330,12 @@
       <c r="C123" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D123" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>421690</v>
       </c>
@@ -5827,8 +6345,12 @@
       <c r="C124" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D124" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>420502</v>
       </c>
@@ -5838,8 +6360,12 @@
       <c r="C125" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D125" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>420504</v>
       </c>
@@ -5849,8 +6375,12 @@
       <c r="C126" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D126" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>420506</v>
       </c>
@@ -5860,8 +6390,12 @@
       <c r="C127" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D127" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>420508</v>
       </c>
@@ -5871,8 +6405,12 @@
       <c r="C128" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D128" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>420510</v>
       </c>
@@ -5882,8 +6420,12 @@
       <c r="C129" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D129" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>420512</v>
       </c>
@@ -5893,8 +6435,12 @@
       <c r="C130" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D130" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>420514</v>
       </c>
@@ -5904,8 +6450,12 @@
       <c r="C131" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D131" t="str">
+        <f t="shared" ref="D131:D194" si="2">LEFT(C131,2)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>420516</v>
       </c>
@@ -5915,8 +6465,12 @@
       <c r="C132" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D132" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>420602</v>
       </c>
@@ -5926,8 +6480,12 @@
       <c r="C133" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D133" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>420604</v>
       </c>
@@ -5937,8 +6495,12 @@
       <c r="C134" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D134" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>420606</v>
       </c>
@@ -5948,8 +6510,12 @@
       <c r="C135" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D135" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>420608</v>
       </c>
@@ -5959,8 +6525,12 @@
       <c r="C136" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D136" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>420610</v>
       </c>
@@ -5970,8 +6540,12 @@
       <c r="C137" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D137" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>420612</v>
       </c>
@@ -5981,8 +6555,12 @@
       <c r="C138" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D138" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>420614</v>
       </c>
@@ -5992,8 +6570,12 @@
       <c r="C139" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D139" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>420616</v>
       </c>
@@ -6003,8 +6585,12 @@
       <c r="C140" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D140" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>420702</v>
       </c>
@@ -6014,8 +6600,12 @@
       <c r="C141" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D141" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>420704</v>
       </c>
@@ -6025,8 +6615,12 @@
       <c r="C142" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D142" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>420706</v>
       </c>
@@ -6036,8 +6630,12 @@
       <c r="C143" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D143" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>420708</v>
       </c>
@@ -6047,8 +6645,12 @@
       <c r="C144" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D144" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>420710</v>
       </c>
@@ -6058,8 +6660,12 @@
       <c r="C145" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D145" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>420712</v>
       </c>
@@ -6069,8 +6675,12 @@
       <c r="C146" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D146" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>420714</v>
       </c>
@@ -6080,8 +6690,12 @@
       <c r="C147" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D147" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>420716</v>
       </c>
@@ -6091,8 +6705,12 @@
       <c r="C148" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D148" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>420802</v>
       </c>
@@ -6102,8 +6720,12 @@
       <c r="C149" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D149" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>420804</v>
       </c>
@@ -6113,8 +6735,12 @@
       <c r="C150" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D150" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>420806</v>
       </c>
@@ -6124,8 +6750,12 @@
       <c r="C151" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D151" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>420808</v>
       </c>
@@ -6135,8 +6765,12 @@
       <c r="C152" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D152" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>420810</v>
       </c>
@@ -6146,8 +6780,12 @@
       <c r="C153" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D153" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>420812</v>
       </c>
@@ -6157,8 +6795,12 @@
       <c r="C154" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D154" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>420814</v>
       </c>
@@ -6168,8 +6810,12 @@
       <c r="C155" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D155" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>420816</v>
       </c>
@@ -6179,8 +6825,12 @@
       <c r="C156" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D156" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>420902</v>
       </c>
@@ -6190,8 +6840,12 @@
       <c r="C157" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D157" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>420904</v>
       </c>
@@ -6201,8 +6855,12 @@
       <c r="C158" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D158" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>420906</v>
       </c>
@@ -6212,8 +6870,12 @@
       <c r="C159" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D159" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>420908</v>
       </c>
@@ -6223,8 +6885,12 @@
       <c r="C160" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D160" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>420910</v>
       </c>
@@ -6234,8 +6900,12 @@
       <c r="C161" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D161" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>420912</v>
       </c>
@@ -6245,8 +6915,12 @@
       <c r="C162" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D162" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>420914</v>
       </c>
@@ -6256,8 +6930,12 @@
       <c r="C163" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D163" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>420916</v>
       </c>
@@ -6267,8 +6945,12 @@
       <c r="C164" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D164" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>421002</v>
       </c>
@@ -6278,8 +6960,12 @@
       <c r="C165" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D165" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>421004</v>
       </c>
@@ -6289,8 +6975,12 @@
       <c r="C166" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D166" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>421006</v>
       </c>
@@ -6300,8 +6990,12 @@
       <c r="C167" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D167" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>421008</v>
       </c>
@@ -6311,8 +7005,12 @@
       <c r="C168" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D168" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>421010</v>
       </c>
@@ -6322,8 +7020,12 @@
       <c r="C169" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D169" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>421012</v>
       </c>
@@ -6333,8 +7035,12 @@
       <c r="C170" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D170" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>421014</v>
       </c>
@@ -6344,8 +7050,12 @@
       <c r="C171" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D171" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>421016</v>
       </c>
@@ -6355,8 +7065,12 @@
       <c r="C172" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D172" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>421102</v>
       </c>
@@ -6366,8 +7080,12 @@
       <c r="C173" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D173" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>421104</v>
       </c>
@@ -6377,8 +7095,12 @@
       <c r="C174" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D174" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>421106</v>
       </c>
@@ -6388,8 +7110,12 @@
       <c r="C175" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D175" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>421108</v>
       </c>
@@ -6399,8 +7125,12 @@
       <c r="C176" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D176" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>421110</v>
       </c>
@@ -6410,8 +7140,12 @@
       <c r="C177" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D177" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>421112</v>
       </c>
@@ -6421,8 +7155,12 @@
       <c r="C178" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D178" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>421114</v>
       </c>
@@ -6432,8 +7170,12 @@
       <c r="C179" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D179" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>421116</v>
       </c>
@@ -6443,8 +7185,12 @@
       <c r="C180" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D180" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>421202</v>
       </c>
@@ -6454,8 +7200,12 @@
       <c r="C181" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D181" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>421204</v>
       </c>
@@ -6465,8 +7215,12 @@
       <c r="C182" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D182" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>421206</v>
       </c>
@@ -6476,8 +7230,12 @@
       <c r="C183" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D183" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>421208</v>
       </c>
@@ -6487,8 +7245,12 @@
       <c r="C184" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D184" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>421210</v>
       </c>
@@ -6498,8 +7260,12 @@
       <c r="C185" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D185" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>421212</v>
       </c>
@@ -6509,8 +7275,12 @@
       <c r="C186" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D186" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>421214</v>
       </c>
@@ -6520,8 +7290,12 @@
       <c r="C187" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D187" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>421216</v>
       </c>
@@ -6531,8 +7305,12 @@
       <c r="C188" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D188" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>421316</v>
       </c>
@@ -6542,8 +7320,12 @@
       <c r="C189" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D189" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>421318</v>
       </c>
@@ -6553,8 +7335,12 @@
       <c r="C190" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D190" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>421416</v>
       </c>
@@ -6564,8 +7350,12 @@
       <c r="C191" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D191" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>421418</v>
       </c>
@@ -6575,8 +7365,12 @@
       <c r="C192" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D192" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>540192</v>
       </c>
@@ -6586,8 +7380,12 @@
       <c r="C193" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D193" t="str">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>540292</v>
       </c>
@@ -6597,8 +7395,12 @@
       <c r="C194" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D194" t="str">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>540392</v>
       </c>
@@ -6608,8 +7410,12 @@
       <c r="C195" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D195" t="str">
+        <f t="shared" ref="D195:D258" si="3">LEFT(C195,2)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>540492</v>
       </c>
@@ -6619,8 +7425,12 @@
       <c r="C196" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D196" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>540584</v>
       </c>
@@ -6630,8 +7440,12 @@
       <c r="C197" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D197" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>540586</v>
       </c>
@@ -6641,8 +7455,12 @@
       <c r="C198" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D198" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>540588</v>
       </c>
@@ -6652,8 +7470,12 @@
       <c r="C199" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D199" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>540590</v>
       </c>
@@ -6663,8 +7485,12 @@
       <c r="C200" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D200" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>540592</v>
       </c>
@@ -6674,8 +7500,12 @@
       <c r="C201" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D201" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>540684</v>
       </c>
@@ -6685,8 +7515,12 @@
       <c r="C202" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D202" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>540686</v>
       </c>
@@ -6696,8 +7530,12 @@
       <c r="C203" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D203" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>540688</v>
       </c>
@@ -6707,8 +7545,12 @@
       <c r="C204" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D204" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>540690</v>
       </c>
@@ -6718,8 +7560,12 @@
       <c r="C205" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D205" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>540692</v>
       </c>
@@ -6729,8 +7575,12 @@
       <c r="C206" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D206" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>540784</v>
       </c>
@@ -6740,8 +7590,12 @@
       <c r="C207" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D207" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>540786</v>
       </c>
@@ -6751,8 +7605,12 @@
       <c r="C208" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D208" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>540788</v>
       </c>
@@ -6762,8 +7620,12 @@
       <c r="C209" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D209" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>540790</v>
       </c>
@@ -6773,8 +7635,12 @@
       <c r="C210" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D210" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>540792</v>
       </c>
@@ -6784,8 +7650,12 @@
       <c r="C211" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D211" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>540884</v>
       </c>
@@ -6795,8 +7665,12 @@
       <c r="C212" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D212" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>540886</v>
       </c>
@@ -6806,8 +7680,12 @@
       <c r="C213" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D213" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>540888</v>
       </c>
@@ -6817,8 +7695,12 @@
       <c r="C214" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D214" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>540890</v>
       </c>
@@ -6828,8 +7710,12 @@
       <c r="C215" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D215" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>540892</v>
       </c>
@@ -6839,8 +7725,12 @@
       <c r="C216" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D216" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>540984</v>
       </c>
@@ -6850,8 +7740,12 @@
       <c r="C217" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D217" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>540986</v>
       </c>
@@ -6861,8 +7755,12 @@
       <c r="C218" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D218" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>540988</v>
       </c>
@@ -6872,8 +7770,12 @@
       <c r="C219" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D219" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>540990</v>
       </c>
@@ -6883,8 +7785,12 @@
       <c r="C220" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D220" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>540992</v>
       </c>
@@ -6894,8 +7800,12 @@
       <c r="C221" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D221" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>541084</v>
       </c>
@@ -6905,8 +7815,12 @@
       <c r="C222" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D222" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>541086</v>
       </c>
@@ -6916,8 +7830,12 @@
       <c r="C223" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D223" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>541088</v>
       </c>
@@ -6927,8 +7845,12 @@
       <c r="C224" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D224" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>541090</v>
       </c>
@@ -6938,8 +7860,12 @@
       <c r="C225" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D225" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>541092</v>
       </c>
@@ -6949,8 +7875,12 @@
       <c r="C226" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D226" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>541184</v>
       </c>
@@ -6960,8 +7890,12 @@
       <c r="C227" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D227" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>541186</v>
       </c>
@@ -6971,8 +7905,12 @@
       <c r="C228" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D228" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>541188</v>
       </c>
@@ -6982,8 +7920,12 @@
       <c r="C229" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D229" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>541190</v>
       </c>
@@ -6993,8 +7935,12 @@
       <c r="C230" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D230" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>541192</v>
       </c>
@@ -7004,8 +7950,12 @@
       <c r="C231" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D231" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>541284</v>
       </c>
@@ -7015,8 +7965,12 @@
       <c r="C232" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D232" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>541286</v>
       </c>
@@ -7026,8 +7980,12 @@
       <c r="C233" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D233" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>541288</v>
       </c>
@@ -7037,8 +7995,12 @@
       <c r="C234" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D234" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>541290</v>
       </c>
@@ -7048,8 +8010,12 @@
       <c r="C235" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D235" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>541292</v>
       </c>
@@ -7059,8 +8025,12 @@
       <c r="C236" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D236" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>541386</v>
       </c>
@@ -7070,8 +8040,12 @@
       <c r="C237" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D237" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>541388</v>
       </c>
@@ -7081,8 +8055,12 @@
       <c r="C238" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D238" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>541390</v>
       </c>
@@ -7092,8 +8070,12 @@
       <c r="C239" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D239" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>541486</v>
       </c>
@@ -7103,8 +8085,12 @@
       <c r="C240" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D240" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>541488</v>
       </c>
@@ -7114,8 +8100,12 @@
       <c r="C241" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D241" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>541490</v>
       </c>
@@ -7125,8 +8115,12 @@
       <c r="C242" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D242" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>541582</v>
       </c>
@@ -7136,8 +8130,12 @@
       <c r="C243" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D243" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>541584</v>
       </c>
@@ -7147,8 +8145,12 @@
       <c r="C244" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D244" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>541586</v>
       </c>
@@ -7158,8 +8160,12 @@
       <c r="C245" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D245" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>541588</v>
       </c>
@@ -7169,8 +8175,12 @@
       <c r="C246" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D246" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>541590</v>
       </c>
@@ -7180,8 +8190,12 @@
       <c r="C247" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D247" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>541592</v>
       </c>
@@ -7191,8 +8205,12 @@
       <c r="C248" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D248" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>541682</v>
       </c>
@@ -7202,8 +8220,12 @@
       <c r="C249" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D249" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>541684</v>
       </c>
@@ -7213,8 +8235,12 @@
       <c r="C250" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D250" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>541686</v>
       </c>
@@ -7224,8 +8250,12 @@
       <c r="C251" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D251" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>541688</v>
       </c>
@@ -7235,8 +8265,12 @@
       <c r="C252" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D252" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>541690</v>
       </c>
@@ -7246,8 +8280,12 @@
       <c r="C253" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D253" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>541692</v>
       </c>
@@ -7257,8 +8295,12 @@
       <c r="C254" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D254" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>540092</v>
       </c>
@@ -7268,8 +8310,12 @@
       <c r="C255" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D255" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>540502</v>
       </c>
@@ -7279,8 +8325,12 @@
       <c r="C256" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D256" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>540504</v>
       </c>
@@ -7290,8 +8340,12 @@
       <c r="C257" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D257" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>540506</v>
       </c>
@@ -7301,8 +8355,12 @@
       <c r="C258" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D258" t="str">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>540508</v>
       </c>
@@ -7312,8 +8370,12 @@
       <c r="C259" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D259" t="str">
+        <f t="shared" ref="D259:D322" si="4">LEFT(C259,2)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>540510</v>
       </c>
@@ -7323,8 +8385,12 @@
       <c r="C260" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D260" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>540512</v>
       </c>
@@ -7334,8 +8400,12 @@
       <c r="C261" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D261" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>540514</v>
       </c>
@@ -7345,8 +8415,12 @@
       <c r="C262" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D262" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>540516</v>
       </c>
@@ -7356,8 +8430,12 @@
       <c r="C263" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D263" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>540602</v>
       </c>
@@ -7367,8 +8445,12 @@
       <c r="C264" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D264" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>540604</v>
       </c>
@@ -7378,8 +8460,12 @@
       <c r="C265" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D265" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>540606</v>
       </c>
@@ -7389,8 +8475,12 @@
       <c r="C266" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D266" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>540608</v>
       </c>
@@ -7400,8 +8490,12 @@
       <c r="C267" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D267" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>540610</v>
       </c>
@@ -7411,8 +8505,12 @@
       <c r="C268" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D268" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>540612</v>
       </c>
@@ -7422,8 +8520,12 @@
       <c r="C269" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D269" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>540614</v>
       </c>
@@ -7433,8 +8535,12 @@
       <c r="C270" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D270" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>540616</v>
       </c>
@@ -7444,8 +8550,12 @@
       <c r="C271" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D271" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>540702</v>
       </c>
@@ -7455,8 +8565,12 @@
       <c r="C272" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D272" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>540704</v>
       </c>
@@ -7466,8 +8580,12 @@
       <c r="C273" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D273" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>540706</v>
       </c>
@@ -7477,8 +8595,12 @@
       <c r="C274" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D274" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>540708</v>
       </c>
@@ -7488,8 +8610,12 @@
       <c r="C275" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D275" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>540710</v>
       </c>
@@ -7499,8 +8625,12 @@
       <c r="C276" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D276" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>540712</v>
       </c>
@@ -7510,8 +8640,12 @@
       <c r="C277" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D277" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>540714</v>
       </c>
@@ -7521,8 +8655,12 @@
       <c r="C278" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D278" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>540716</v>
       </c>
@@ -7532,8 +8670,12 @@
       <c r="C279" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D279" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>540802</v>
       </c>
@@ -7543,8 +8685,12 @@
       <c r="C280" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D280" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>540804</v>
       </c>
@@ -7554,8 +8700,12 @@
       <c r="C281" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D281" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>540806</v>
       </c>
@@ -7565,8 +8715,12 @@
       <c r="C282" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D282" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>540808</v>
       </c>
@@ -7576,8 +8730,12 @@
       <c r="C283" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D283" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>540810</v>
       </c>
@@ -7587,8 +8745,12 @@
       <c r="C284" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D284" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>540812</v>
       </c>
@@ -7598,8 +8760,12 @@
       <c r="C285" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D285" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>540814</v>
       </c>
@@ -7609,8 +8775,12 @@
       <c r="C286" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D286" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>540816</v>
       </c>
@@ -7620,8 +8790,12 @@
       <c r="C287" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D287" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>540902</v>
       </c>
@@ -7631,8 +8805,12 @@
       <c r="C288" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D288" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>540904</v>
       </c>
@@ -7642,8 +8820,12 @@
       <c r="C289" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D289" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>540906</v>
       </c>
@@ -7653,8 +8835,12 @@
       <c r="C290" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D290" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>540908</v>
       </c>
@@ -7664,8 +8850,12 @@
       <c r="C291" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D291" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>540910</v>
       </c>
@@ -7675,8 +8865,12 @@
       <c r="C292" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D292" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>540912</v>
       </c>
@@ -7686,8 +8880,12 @@
       <c r="C293" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D293" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>540914</v>
       </c>
@@ -7697,8 +8895,12 @@
       <c r="C294" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D294" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>540916</v>
       </c>
@@ -7708,8 +8910,12 @@
       <c r="C295" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D295" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>541002</v>
       </c>
@@ -7719,8 +8925,12 @@
       <c r="C296" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D296" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>541004</v>
       </c>
@@ -7730,8 +8940,12 @@
       <c r="C297" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D297" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>541006</v>
       </c>
@@ -7741,8 +8955,12 @@
       <c r="C298" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D298" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>541008</v>
       </c>
@@ -7752,8 +8970,12 @@
       <c r="C299" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D299" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>541010</v>
       </c>
@@ -7763,8 +8985,12 @@
       <c r="C300" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D300" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>541012</v>
       </c>
@@ -7774,8 +9000,12 @@
       <c r="C301" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D301" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>541014</v>
       </c>
@@ -7785,8 +9015,12 @@
       <c r="C302" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D302" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>541016</v>
       </c>
@@ -7796,8 +9030,12 @@
       <c r="C303" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D303" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>541102</v>
       </c>
@@ -7807,8 +9045,12 @@
       <c r="C304" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D304" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>541104</v>
       </c>
@@ -7818,8 +9060,12 @@
       <c r="C305" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D305" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>541106</v>
       </c>
@@ -7829,8 +9075,12 @@
       <c r="C306" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D306" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>541108</v>
       </c>
@@ -7840,8 +9090,12 @@
       <c r="C307" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D307" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>541110</v>
       </c>
@@ -7851,8 +9105,12 @@
       <c r="C308" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D308" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>541112</v>
       </c>
@@ -7862,8 +9120,12 @@
       <c r="C309" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D309" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>541114</v>
       </c>
@@ -7873,8 +9135,12 @@
       <c r="C310" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D310" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>541116</v>
       </c>
@@ -7884,8 +9150,12 @@
       <c r="C311" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D311" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>541202</v>
       </c>
@@ -7895,8 +9165,12 @@
       <c r="C312" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D312" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>541204</v>
       </c>
@@ -7906,8 +9180,12 @@
       <c r="C313" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D313" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>541206</v>
       </c>
@@ -7917,8 +9195,12 @@
       <c r="C314" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D314" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>541208</v>
       </c>
@@ -7928,8 +9210,12 @@
       <c r="C315" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D315" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>541210</v>
       </c>
@@ -7939,8 +9225,12 @@
       <c r="C316" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D316" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>541212</v>
       </c>
@@ -7950,8 +9240,12 @@
       <c r="C317" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D317" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>541214</v>
       </c>
@@ -7961,8 +9255,12 @@
       <c r="C318" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D318" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>541216</v>
       </c>
@@ -7972,8 +9270,12 @@
       <c r="C319" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D319" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>541316</v>
       </c>
@@ -7983,8 +9285,12 @@
       <c r="C320" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D320" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>541318</v>
       </c>
@@ -7994,8 +9300,12 @@
       <c r="C321" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D321" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>541416</v>
       </c>
@@ -8005,8 +9315,12 @@
       <c r="C322" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D322" t="str">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>541418</v>
       </c>
@@ -8016,8 +9330,12 @@
       <c r="C323" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D323" t="str">
+        <f t="shared" ref="D323:D386" si="5">LEFT(C323,2)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>620182</v>
       </c>
@@ -8027,8 +9345,12 @@
       <c r="C324" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D324" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>620184</v>
       </c>
@@ -8038,8 +9360,12 @@
       <c r="C325" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D325" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>620186</v>
       </c>
@@ -8049,8 +9375,12 @@
       <c r="C326" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D326" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>620188</v>
       </c>
@@ -8060,8 +9390,12 @@
       <c r="C327" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D327" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>620190</v>
       </c>
@@ -8071,8 +9405,12 @@
       <c r="C328" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D328" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>620192</v>
       </c>
@@ -8082,8 +9420,12 @@
       <c r="C329" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D329" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>620282</v>
       </c>
@@ -8093,8 +9435,12 @@
       <c r="C330" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D330" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>620284</v>
       </c>
@@ -8104,8 +9450,12 @@
       <c r="C331" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D331" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>620286</v>
       </c>
@@ -8115,8 +9465,12 @@
       <c r="C332" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D332" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>620288</v>
       </c>
@@ -8126,8 +9480,12 @@
       <c r="C333" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D333" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>620290</v>
       </c>
@@ -8137,8 +9495,12 @@
       <c r="C334" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D334" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>620292</v>
       </c>
@@ -8148,8 +9510,12 @@
       <c r="C335" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D335" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>620382</v>
       </c>
@@ -8159,8 +9525,12 @@
       <c r="C336" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D336" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>620384</v>
       </c>
@@ -8170,8 +9540,12 @@
       <c r="C337" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D337" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>620386</v>
       </c>
@@ -8181,8 +9555,12 @@
       <c r="C338" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D338" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>620388</v>
       </c>
@@ -8192,8 +9570,12 @@
       <c r="C339" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D339" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>620390</v>
       </c>
@@ -8203,8 +9585,12 @@
       <c r="C340" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D340" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>620392</v>
       </c>
@@ -8214,8 +9600,12 @@
       <c r="C341" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D341" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>620482</v>
       </c>
@@ -8225,8 +9615,12 @@
       <c r="C342" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D342" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>620484</v>
       </c>
@@ -8236,8 +9630,12 @@
       <c r="C343" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D343" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>620486</v>
       </c>
@@ -8247,8 +9645,12 @@
       <c r="C344" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D344" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>620488</v>
       </c>
@@ -8258,8 +9660,12 @@
       <c r="C345" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D345" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>620490</v>
       </c>
@@ -8269,8 +9675,12 @@
       <c r="C346" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D346" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>620492</v>
       </c>
@@ -8280,8 +9690,12 @@
       <c r="C347" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D347" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>620092</v>
       </c>
@@ -8291,8 +9705,12 @@
       <c r="C348" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D348" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>620090</v>
       </c>
@@ -8302,8 +9720,12 @@
       <c r="C349" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D349" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>620088</v>
       </c>
@@ -8313,8 +9735,12 @@
       <c r="C350" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D350" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>620086</v>
       </c>
@@ -8324,8 +9750,12 @@
       <c r="C351" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D351" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>620084</v>
       </c>
@@ -8335,8 +9765,12 @@
       <c r="C352" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D352" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>620082</v>
       </c>
@@ -8346,8 +9780,12 @@
       <c r="C353" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D353" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>620102</v>
       </c>
@@ -8357,8 +9795,12 @@
       <c r="C354" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D354" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>620104</v>
       </c>
@@ -8368,8 +9810,12 @@
       <c r="C355" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D355" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>620106</v>
       </c>
@@ -8379,8 +9825,12 @@
       <c r="C356" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D356" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>620108</v>
       </c>
@@ -8390,8 +9840,12 @@
       <c r="C357" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D357" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>620110</v>
       </c>
@@ -8401,8 +9855,12 @@
       <c r="C358" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D358" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>620112</v>
       </c>
@@ -8412,8 +9870,12 @@
       <c r="C359" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D359" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>620114</v>
       </c>
@@ -8423,8 +9885,12 @@
       <c r="C360" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D360" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>620116</v>
       </c>
@@ -8434,8 +9900,12 @@
       <c r="C361" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D361" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>620202</v>
       </c>
@@ -8445,8 +9915,12 @@
       <c r="C362" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D362" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>620204</v>
       </c>
@@ -8456,8 +9930,12 @@
       <c r="C363" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D363" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>620206</v>
       </c>
@@ -8467,8 +9945,12 @@
       <c r="C364" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D364" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>620208</v>
       </c>
@@ -8478,8 +9960,12 @@
       <c r="C365" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D365" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>620210</v>
       </c>
@@ -8489,8 +9975,12 @@
       <c r="C366" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D366" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>620212</v>
       </c>
@@ -8500,8 +9990,12 @@
       <c r="C367" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D367" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>620214</v>
       </c>
@@ -8511,8 +10005,12 @@
       <c r="C368" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D368" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>620216</v>
       </c>
@@ -8522,8 +10020,12 @@
       <c r="C369" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D369" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>620302</v>
       </c>
@@ -8533,8 +10035,12 @@
       <c r="C370" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D370" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>620304</v>
       </c>
@@ -8544,8 +10050,12 @@
       <c r="C371" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D371" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>620306</v>
       </c>
@@ -8555,8 +10065,12 @@
       <c r="C372" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D372" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>620308</v>
       </c>
@@ -8566,8 +10080,12 @@
       <c r="C373" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D373" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>620310</v>
       </c>
@@ -8577,8 +10095,12 @@
       <c r="C374" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D374" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>620312</v>
       </c>
@@ -8588,8 +10110,12 @@
       <c r="C375" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D375" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>620314</v>
       </c>
@@ -8599,8 +10125,12 @@
       <c r="C376" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D376" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>620316</v>
       </c>
@@ -8610,8 +10140,12 @@
       <c r="C377" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D377" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>620402</v>
       </c>
@@ -8621,8 +10155,12 @@
       <c r="C378" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D378" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>620404</v>
       </c>
@@ -8632,8 +10170,12 @@
       <c r="C379" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D379" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>620406</v>
       </c>
@@ -8643,8 +10185,12 @@
       <c r="C380" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D380" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>620408</v>
       </c>
@@ -8654,8 +10200,12 @@
       <c r="C381" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D381" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>620410</v>
       </c>
@@ -8665,8 +10215,12 @@
       <c r="C382" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D382" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>620412</v>
       </c>
@@ -8676,8 +10230,12 @@
       <c r="C383" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D383" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>620414</v>
       </c>
@@ -8687,8 +10245,12 @@
       <c r="C384" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D384" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>620416</v>
       </c>
@@ -8698,8 +10260,12 @@
       <c r="C385" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D385" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>620002</v>
       </c>
@@ -8709,8 +10275,12 @@
       <c r="C386" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D386" t="str">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>620004</v>
       </c>
@@ -8720,8 +10290,12 @@
       <c r="C387" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D387" t="str">
+        <f t="shared" ref="D387:D450" si="6">LEFT(C387,2)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>620014</v>
       </c>
@@ -8731,8 +10305,12 @@
       <c r="C388" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D388" t="str">
+        <f t="shared" si="6"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>620016</v>
       </c>
@@ -8742,8 +10320,12 @@
       <c r="C389" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D389" t="str">
+        <f t="shared" si="6"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>620006</v>
       </c>
@@ -8753,8 +10335,12 @@
       <c r="C390" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D390" t="str">
+        <f t="shared" si="6"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>620008</v>
       </c>
@@ -8764,8 +10350,12 @@
       <c r="C391" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D391" t="str">
+        <f t="shared" si="6"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>620012</v>
       </c>
@@ -8775,8 +10365,12 @@
       <c r="C392" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D392" t="str">
+        <f t="shared" si="6"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>620010</v>
       </c>
@@ -8786,8 +10380,12 @@
       <c r="C393" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D393" t="str">
+        <f t="shared" si="6"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>660182</v>
       </c>
@@ -8797,8 +10395,12 @@
       <c r="C394" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D394" t="str">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>660184</v>
       </c>
@@ -8808,8 +10410,12 @@
       <c r="C395" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D395" t="str">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>660186</v>
       </c>
@@ -8819,8 +10425,12 @@
       <c r="C396" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D396" t="str">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>660188</v>
       </c>
@@ -8830,8 +10440,12 @@
       <c r="C397" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D397" t="str">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>660190</v>
       </c>
@@ -8841,8 +10455,12 @@
       <c r="C398" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D398" t="str">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>660192</v>
       </c>
@@ -8852,8 +10470,12 @@
       <c r="C399" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D399" t="str">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>660282</v>
       </c>
@@ -8863,8 +10485,12 @@
       <c r="C400" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D400" t="str">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>660284</v>
       </c>
@@ -8874,8 +10500,12 @@
       <c r="C401" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D401" t="str">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>660286</v>
       </c>
@@ -8885,8 +10515,12 @@
       <c r="C402" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D402" t="str">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>660288</v>
       </c>
@@ -8896,8 +10530,12 @@
       <c r="C403" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D403" t="str">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>660290</v>
       </c>
@@ -8907,8 +10545,12 @@
       <c r="C404" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D404" t="str">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>660292</v>
       </c>
@@ -8918,8 +10560,12 @@
       <c r="C405" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D405" t="str">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>660382</v>
       </c>
@@ -8929,8 +10575,12 @@
       <c r="C406" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D406" t="str">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>660384</v>
       </c>
@@ -8940,8 +10590,12 @@
       <c r="C407" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D407" t="str">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>660386</v>
       </c>
@@ -8951,8 +10605,12 @@
       <c r="C408" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D408" t="str">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>660388</v>
       </c>
@@ -8962,8 +10620,12 @@
       <c r="C409" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D409" t="str">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>660390</v>
       </c>
@@ -8973,8 +10635,12 @@
       <c r="C410" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D410" t="str">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>660392</v>
       </c>
@@ -8984,8 +10650,12 @@
       <c r="C411" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D411" t="str">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>660482</v>
       </c>
@@ -8995,8 +10665,12 @@
       <c r="C412" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D412" t="str">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>660484</v>
       </c>
@@ -9006,8 +10680,12 @@
       <c r="C413" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D413" t="str">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>660486</v>
       </c>
@@ -9017,8 +10695,12 @@
       <c r="C414" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D414" t="str">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>660488</v>
       </c>
@@ -9028,8 +10710,12 @@
       <c r="C415" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D415" t="str">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>660490</v>
       </c>
@@ -9039,8 +10725,12 @@
       <c r="C416" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D416" t="str">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>660492</v>
       </c>
@@ -9050,8 +10740,12 @@
       <c r="C417" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D417" t="str">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>660592</v>
       </c>
@@ -9061,8 +10755,12 @@
       <c r="C418" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D418" t="str">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>660692</v>
       </c>
@@ -9072,8 +10770,12 @@
       <c r="C419" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D419" t="str">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>661592</v>
       </c>
@@ -9083,8 +10785,12 @@
       <c r="C420" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D420" t="str">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>661692</v>
       </c>
@@ -9094,8 +10800,12 @@
       <c r="C421" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D421" t="str">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>660092</v>
       </c>
@@ -9105,8 +10815,12 @@
       <c r="C422" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D422" t="str">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>660090</v>
       </c>
@@ -9116,8 +10830,12 @@
       <c r="C423" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D423" t="str">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>660086</v>
       </c>
@@ -9127,8 +10845,12 @@
       <c r="C424" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D424" t="str">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>660088</v>
       </c>
@@ -9138,8 +10860,12 @@
       <c r="C425" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D425" t="str">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>660084</v>
       </c>
@@ -9149,8 +10875,12 @@
       <c r="C426" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D426" t="str">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>660082</v>
       </c>
@@ -9160,8 +10890,12 @@
       <c r="C427" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D427" t="str">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>660116</v>
       </c>
@@ -9171,8 +10905,12 @@
       <c r="C428" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D428" t="str">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>660118</v>
       </c>
@@ -9182,8 +10920,12 @@
       <c r="C429" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D429" t="str">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>660216</v>
       </c>
@@ -9193,8 +10935,12 @@
       <c r="C430" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D430" t="str">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>660218</v>
       </c>
@@ -9204,8 +10950,12 @@
       <c r="C431" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D431" t="str">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>660316</v>
       </c>
@@ -9215,8 +10965,12 @@
       <c r="C432" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D432" t="str">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>660318</v>
       </c>
@@ -9226,8 +10980,12 @@
       <c r="C433" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D433" t="str">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>660416</v>
       </c>
@@ -9237,8 +10995,12 @@
       <c r="C434" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D434" t="str">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>660418</v>
       </c>
@@ -9248,8 +11010,12 @@
       <c r="C435" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D435" t="str">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>660018</v>
       </c>
@@ -9259,8 +11025,12 @@
       <c r="C436" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D436" t="str">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>660016</v>
       </c>
@@ -9270,8 +11040,12 @@
       <c r="C437" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D437" t="str">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>700184</v>
       </c>
@@ -9281,8 +11055,12 @@
       <c r="C438" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D438" t="str">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>700186</v>
       </c>
@@ -9292,8 +11070,12 @@
       <c r="C439" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D439" t="str">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>700188</v>
       </c>
@@ -9303,8 +11085,12 @@
       <c r="C440" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D440" t="str">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>700190</v>
       </c>
@@ -9314,8 +11100,12 @@
       <c r="C441" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D441" t="str">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>700192</v>
       </c>
@@ -9325,8 +11115,12 @@
       <c r="C442" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D442" t="str">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>700284</v>
       </c>
@@ -9336,8 +11130,12 @@
       <c r="C443" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D443" t="str">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>700286</v>
       </c>
@@ -9347,8 +11145,12 @@
       <c r="C444" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D444" t="str">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>700288</v>
       </c>
@@ -9358,8 +11160,12 @@
       <c r="C445" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D445" t="str">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>700290</v>
       </c>
@@ -9369,8 +11175,12 @@
       <c r="C446" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D446" t="str">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>700292</v>
       </c>
@@ -9380,8 +11190,12 @@
       <c r="C447" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D447" t="str">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>700384</v>
       </c>
@@ -9391,8 +11205,12 @@
       <c r="C448" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D448" t="str">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>700386</v>
       </c>
@@ -9402,8 +11220,12 @@
       <c r="C449" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D449" t="str">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>700388</v>
       </c>
@@ -9413,8 +11235,12 @@
       <c r="C450" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D450" t="str">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>700390</v>
       </c>
@@ -9424,8 +11250,12 @@
       <c r="C451" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D451" t="str">
+        <f t="shared" ref="D451:D514" si="7">LEFT(C451,2)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>700392</v>
       </c>
@@ -9435,8 +11265,12 @@
       <c r="C452" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D452" t="str">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>700484</v>
       </c>
@@ -9446,8 +11280,12 @@
       <c r="C453" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D453" t="str">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>700486</v>
       </c>
@@ -9457,8 +11295,12 @@
       <c r="C454" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D454" t="str">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>700488</v>
       </c>
@@ -9468,8 +11310,12 @@
       <c r="C455" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D455" t="str">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>700490</v>
       </c>
@@ -9479,8 +11325,12 @@
       <c r="C456" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D456" t="str">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>700492</v>
       </c>
@@ -9490,8 +11340,12 @@
       <c r="C457" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D457" t="str">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>701592</v>
       </c>
@@ -9501,8 +11355,12 @@
       <c r="C458" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D458" t="str">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>701692</v>
       </c>
@@ -9512,8 +11370,12 @@
       <c r="C459" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D459" t="str">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>700090</v>
       </c>
@@ -9523,8 +11385,12 @@
       <c r="C460" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D460" t="str">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>700092</v>
       </c>
@@ -9534,8 +11400,12 @@
       <c r="C461" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D461" t="str">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>700088</v>
       </c>
@@ -9545,8 +11415,12 @@
       <c r="C462" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D462" t="str">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>700084</v>
       </c>
@@ -9556,8 +11430,12 @@
       <c r="C463" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D463" t="str">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>700086</v>
       </c>
@@ -9567,8 +11445,12 @@
       <c r="C464" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D464" t="str">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>700116</v>
       </c>
@@ -9578,8 +11460,12 @@
       <c r="C465" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D465" t="str">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>700118</v>
       </c>
@@ -9589,8 +11475,12 @@
       <c r="C466" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D466" t="str">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>700216</v>
       </c>
@@ -9600,8 +11490,12 @@
       <c r="C467" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D467" t="str">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>700218</v>
       </c>
@@ -9611,8 +11505,12 @@
       <c r="C468" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D468" t="str">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>700316</v>
       </c>
@@ -9622,8 +11520,12 @@
       <c r="C469" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D469" t="str">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>700318</v>
       </c>
@@ -9633,8 +11535,12 @@
       <c r="C470" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D470" t="str">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>700416</v>
       </c>
@@ -9644,8 +11550,12 @@
       <c r="C471" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D471" t="str">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>700418</v>
       </c>
@@ -9655,8 +11565,12 @@
       <c r="C472" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D472" t="str">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>700018</v>
       </c>
@@ -9666,8 +11580,12 @@
       <c r="C473" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D473" t="str">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>700016</v>
       </c>
@@ -9677,8 +11595,12 @@
       <c r="C474" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D474" t="str">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>740182</v>
       </c>
@@ -9688,8 +11610,12 @@
       <c r="C475" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D475" t="str">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>740184</v>
       </c>
@@ -9699,8 +11625,12 @@
       <c r="C476" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D476" t="str">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>740186</v>
       </c>
@@ -9710,8 +11640,12 @@
       <c r="C477" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D477" t="str">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>740188</v>
       </c>
@@ -9721,8 +11655,12 @@
       <c r="C478" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D478" t="str">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>740190</v>
       </c>
@@ -9732,8 +11670,12 @@
       <c r="C479" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D479" t="str">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>740192</v>
       </c>
@@ -9743,8 +11685,12 @@
       <c r="C480" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D480" t="str">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>740282</v>
       </c>
@@ -9754,8 +11700,12 @@
       <c r="C481" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D481" t="str">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>740284</v>
       </c>
@@ -9765,8 +11715,12 @@
       <c r="C482" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D482" t="str">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>740286</v>
       </c>
@@ -9776,8 +11730,12 @@
       <c r="C483" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D483" t="str">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>740288</v>
       </c>
@@ -9787,8 +11745,12 @@
       <c r="C484" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D484" t="str">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>740290</v>
       </c>
@@ -9798,8 +11760,12 @@
       <c r="C485" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D485" t="str">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>740292</v>
       </c>
@@ -9809,8 +11775,12 @@
       <c r="C486" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D486" t="str">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>740382</v>
       </c>
@@ -9820,8 +11790,12 @@
       <c r="C487" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D487" t="str">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>740384</v>
       </c>
@@ -9831,8 +11805,12 @@
       <c r="C488" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D488" t="str">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>740386</v>
       </c>
@@ -9842,8 +11820,12 @@
       <c r="C489" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D489" t="str">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>740388</v>
       </c>
@@ -9853,8 +11835,12 @@
       <c r="C490" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D490" t="str">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>740390</v>
       </c>
@@ -9864,8 +11850,12 @@
       <c r="C491" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D491" t="str">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>740392</v>
       </c>
@@ -9875,8 +11865,12 @@
       <c r="C492" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D492" t="str">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>740482</v>
       </c>
@@ -9886,8 +11880,12 @@
       <c r="C493" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D493" t="str">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>740484</v>
       </c>
@@ -9897,8 +11895,12 @@
       <c r="C494" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D494" t="str">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>740486</v>
       </c>
@@ -9908,8 +11910,12 @@
       <c r="C495" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D495" t="str">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>740488</v>
       </c>
@@ -9919,8 +11925,12 @@
       <c r="C496" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D496" t="str">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>740490</v>
       </c>
@@ -9930,8 +11940,12 @@
       <c r="C497" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D497" t="str">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>740492</v>
       </c>
@@ -9941,8 +11955,12 @@
       <c r="C498" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D498" t="str">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>741592</v>
       </c>
@@ -9952,8 +11970,12 @@
       <c r="C499" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D499" t="str">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>741692</v>
       </c>
@@ -9963,8 +11985,12 @@
       <c r="C500" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D500" t="str">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>740092</v>
       </c>
@@ -9974,8 +12000,12 @@
       <c r="C501" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D501" t="str">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>740090</v>
       </c>
@@ -9985,8 +12015,12 @@
       <c r="C502" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D502" t="str">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>740088</v>
       </c>
@@ -9996,8 +12030,12 @@
       <c r="C503" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D503" t="str">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>740086</v>
       </c>
@@ -10007,8 +12045,12 @@
       <c r="C504" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D504" t="str">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>740084</v>
       </c>
@@ -10018,8 +12060,12 @@
       <c r="C505" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D505" t="str">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>740082</v>
       </c>
@@ -10029,8 +12075,12 @@
       <c r="C506" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D506" t="str">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>740116</v>
       </c>
@@ -10040,8 +12090,12 @@
       <c r="C507" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D507" t="str">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>740118</v>
       </c>
@@ -10051,8 +12105,12 @@
       <c r="C508" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D508" t="str">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>740216</v>
       </c>
@@ -10062,8 +12120,12 @@
       <c r="C509" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D509" t="str">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>740218</v>
       </c>
@@ -10073,8 +12135,12 @@
       <c r="C510" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D510" t="str">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>740316</v>
       </c>
@@ -10084,8 +12150,12 @@
       <c r="C511" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D511" t="str">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>740318</v>
       </c>
@@ -10095,8 +12165,12 @@
       <c r="C512" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D512" t="str">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>740416</v>
       </c>
@@ -10106,8 +12180,12 @@
       <c r="C513" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D513" t="str">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>740418</v>
       </c>
@@ -10117,8 +12195,12 @@
       <c r="C514" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D514" t="str">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>740016</v>
       </c>
@@ -10128,8 +12210,12 @@
       <c r="C515" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D515" t="str">
+        <f t="shared" ref="D515:D578" si="8">LEFT(C515,2)</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>740018</v>
       </c>
@@ -10139,8 +12225,12 @@
       <c r="C516" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D516" t="str">
+        <f t="shared" si="8"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>780580</v>
       </c>
@@ -10150,8 +12240,12 @@
       <c r="C517" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D517" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>780582</v>
       </c>
@@ -10161,8 +12255,12 @@
       <c r="C518" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D518" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>780584</v>
       </c>
@@ -10172,8 +12270,12 @@
       <c r="C519" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D519" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>780586</v>
       </c>
@@ -10183,8 +12285,12 @@
       <c r="C520" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D520" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>780588</v>
       </c>
@@ -10194,8 +12300,12 @@
       <c r="C521" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D521" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>780590</v>
       </c>
@@ -10205,8 +12315,12 @@
       <c r="C522" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D522" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>780680</v>
       </c>
@@ -10216,8 +12330,12 @@
       <c r="C523" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D523" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>780682</v>
       </c>
@@ -10227,8 +12345,12 @@
       <c r="C524" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D524" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>780684</v>
       </c>
@@ -10238,8 +12360,12 @@
       <c r="C525" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D525" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>780686</v>
       </c>
@@ -10249,8 +12375,12 @@
       <c r="C526" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D526" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>780688</v>
       </c>
@@ -10260,8 +12390,12 @@
       <c r="C527" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D527" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>780690</v>
       </c>
@@ -10271,8 +12405,12 @@
       <c r="C528" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D528" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>780780</v>
       </c>
@@ -10282,8 +12420,12 @@
       <c r="C529" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D529" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>780782</v>
       </c>
@@ -10293,8 +12435,12 @@
       <c r="C530" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D530" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>780784</v>
       </c>
@@ -10304,8 +12450,12 @@
       <c r="C531" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D531" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>780786</v>
       </c>
@@ -10315,8 +12465,12 @@
       <c r="C532" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D532" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>780788</v>
       </c>
@@ -10326,8 +12480,12 @@
       <c r="C533" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D533" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>780790</v>
       </c>
@@ -10337,8 +12495,12 @@
       <c r="C534" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D534" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>780880</v>
       </c>
@@ -10348,8 +12510,12 @@
       <c r="C535" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D535" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>780882</v>
       </c>
@@ -10359,8 +12525,12 @@
       <c r="C536" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D536" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>780884</v>
       </c>
@@ -10370,8 +12540,12 @@
       <c r="C537" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D537" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>780886</v>
       </c>
@@ -10381,8 +12555,12 @@
       <c r="C538" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D538" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>780888</v>
       </c>
@@ -10392,8 +12570,12 @@
       <c r="C539" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D539" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>780890</v>
       </c>
@@ -10403,8 +12585,12 @@
       <c r="C540" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D540" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>780980</v>
       </c>
@@ -10414,8 +12600,12 @@
       <c r="C541" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D541" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>780982</v>
       </c>
@@ -10425,8 +12615,12 @@
       <c r="C542" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D542" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>780984</v>
       </c>
@@ -10436,8 +12630,12 @@
       <c r="C543" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D543" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>780986</v>
       </c>
@@ -10447,8 +12645,12 @@
       <c r="C544" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D544" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>780988</v>
       </c>
@@ -10458,8 +12660,12 @@
       <c r="C545" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D545" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>780990</v>
       </c>
@@ -10469,8 +12675,12 @@
       <c r="C546" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D546" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>781080</v>
       </c>
@@ -10480,8 +12690,12 @@
       <c r="C547" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D547" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>781082</v>
       </c>
@@ -10491,8 +12705,12 @@
       <c r="C548" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D548" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>781084</v>
       </c>
@@ -10502,8 +12720,12 @@
       <c r="C549" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D549" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>781086</v>
       </c>
@@ -10513,8 +12735,12 @@
       <c r="C550" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D550" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>781088</v>
       </c>
@@ -10524,8 +12750,12 @@
       <c r="C551" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D551" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>781090</v>
       </c>
@@ -10535,8 +12765,12 @@
       <c r="C552" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D552" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>781180</v>
       </c>
@@ -10546,8 +12780,12 @@
       <c r="C553" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D553" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>781182</v>
       </c>
@@ -10557,8 +12795,12 @@
       <c r="C554" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D554" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>781184</v>
       </c>
@@ -10568,8 +12810,12 @@
       <c r="C555" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D555" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>781186</v>
       </c>
@@ -10579,8 +12825,12 @@
       <c r="C556" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D556" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>781188</v>
       </c>
@@ -10590,8 +12840,12 @@
       <c r="C557" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D557" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>781190</v>
       </c>
@@ -10601,8 +12855,12 @@
       <c r="C558" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D558" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>781280</v>
       </c>
@@ -10612,8 +12870,12 @@
       <c r="C559" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D559" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>781282</v>
       </c>
@@ -10623,8 +12885,12 @@
       <c r="C560" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D560" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>781284</v>
       </c>
@@ -10634,8 +12900,12 @@
       <c r="C561" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D561" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>781286</v>
       </c>
@@ -10645,8 +12915,12 @@
       <c r="C562" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D562" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>781288</v>
       </c>
@@ -10656,8 +12930,12 @@
       <c r="C563" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D563" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>781290</v>
       </c>
@@ -10667,8 +12945,12 @@
       <c r="C564" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D564" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>781380</v>
       </c>
@@ -10678,8 +12960,12 @@
       <c r="C565" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D565" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>781382</v>
       </c>
@@ -10689,8 +12975,12 @@
       <c r="C566" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D566" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>781384</v>
       </c>
@@ -10700,8 +12990,12 @@
       <c r="C567" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D567" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>781386</v>
       </c>
@@ -10711,8 +13005,12 @@
       <c r="C568" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D568" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>781388</v>
       </c>
@@ -10722,8 +13020,12 @@
       <c r="C569" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D569" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>781390</v>
       </c>
@@ -10733,8 +13035,12 @@
       <c r="C570" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D570" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>781480</v>
       </c>
@@ -10744,8 +13050,12 @@
       <c r="C571" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D571" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>781482</v>
       </c>
@@ -10755,8 +13065,12 @@
       <c r="C572" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D572" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>781484</v>
       </c>
@@ -10766,8 +13080,12 @@
       <c r="C573" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D573" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>781486</v>
       </c>
@@ -10777,8 +13095,12 @@
       <c r="C574" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D574" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>781488</v>
       </c>
@@ -10788,8 +13110,12 @@
       <c r="C575" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D575" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>781490</v>
       </c>
@@ -10799,8 +13125,12 @@
       <c r="C576" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D576" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>781582</v>
       </c>
@@ -10810,8 +13140,12 @@
       <c r="C577" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D577" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>781584</v>
       </c>
@@ -10821,8 +13155,12 @@
       <c r="C578" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D578" t="str">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>781586</v>
       </c>
@@ -10832,8 +13170,12 @@
       <c r="C579" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D579" t="str">
+        <f t="shared" ref="D579:D586" si="9">LEFT(C579,2)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>781588</v>
       </c>
@@ -10843,8 +13185,12 @@
       <c r="C580" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D580" t="str">
+        <f t="shared" si="9"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>781590</v>
       </c>
@@ -10854,8 +13200,12 @@
       <c r="C581" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D581" t="str">
+        <f t="shared" si="9"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>781682</v>
       </c>
@@ -10865,8 +13215,12 @@
       <c r="C582" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D582" t="str">
+        <f t="shared" si="9"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>781684</v>
       </c>
@@ -10876,8 +13230,12 @@
       <c r="C583" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D583" t="str">
+        <f t="shared" si="9"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>781686</v>
       </c>
@@ -10887,8 +13245,12 @@
       <c r="C584" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D584" t="str">
+        <f t="shared" si="9"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>781688</v>
       </c>
@@ -10898,8 +13260,12 @@
       <c r="C585" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D585" t="str">
+        <f t="shared" si="9"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>781690</v>
       </c>
@@ -10909,13 +13275,12 @@
       <c r="C586" t="s">
         <v>19</v>
       </c>
+      <c r="D586" t="str">
+        <f t="shared" si="9"/>
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C586">
-    <sortState ref="A2:C586">
-      <sortCondition ref="C1:C586"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10924,8 +13289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C596"/>
   <sheetViews>
-    <sheetView topLeftCell="A557" workbookViewId="0">
-      <selection activeCell="A587" sqref="A587"/>
+    <sheetView tabSelected="1" topLeftCell="A557" workbookViewId="0">
+      <selection activeCell="C584" sqref="C584"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17413,5 +19778,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>